--- a/4-esqueleto/evaluaciones/Toledo Lisandro - 20181202.xlsx
+++ b/4-esqueleto/evaluaciones/Toledo Lisandro - 20181202.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lisandrotoledo/Desktop/Proyecto_para_la_web/Repositorios/proyectoweb-migraciones/4-esqueleto/evaluaciones/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376CE595-D6CF-F342-AAB7-7A09C6FEDDC7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18540" windowHeight="14200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Toledo, Lisandro" sheetId="1" r:id="rId4"/>
+    <sheet name="Toledo, Lisandro" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Ocio</t>
   </si>
@@ -308,23 +317,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -339,44 +335,44 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="9"/>
       <color indexed="9"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="9"/>
       <color indexed="9"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
+      <b/>
+      <i/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="9"/>
       <color indexed="11"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
@@ -387,13 +383,13 @@
       <name val="Arial"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -737,226 +733,144 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="72">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -966,28 +880,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff44749f"/>
-      <rgbColor rgb="ff9cc2e5"/>
-      <rgbColor rgb="ffcfcfcf"/>
-      <rgbColor rgb="ff7f7f7f"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF44749F"/>
+      <rgbColor rgb="FF9CC2E5"/>
+      <rgbColor rgb="FFCFCFCF"/>
+      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Tema de Office">
       <a:dk1>
@@ -1189,7 +1160,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1208,7 +1179,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,7 +1209,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1264,7 +1235,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1290,7 +1261,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1316,7 +1287,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1342,7 +1313,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1368,7 +1339,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1394,7 +1365,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1420,7 +1391,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1446,7 +1417,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1459,9 +1430,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1478,7 +1455,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1497,7 +1474,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1523,7 +1500,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1549,7 +1526,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1575,7 +1552,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1601,7 +1578,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1627,7 +1604,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1653,7 +1630,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1679,7 +1656,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1705,7 +1682,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1731,7 +1708,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1744,9 +1721,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1760,7 +1743,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1779,7 +1762,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1809,7 +1792,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1835,7 +1818,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1861,7 +1844,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1887,7 +1870,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1913,7 +1896,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1939,7 +1922,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1965,7 +1948,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1991,7 +1974,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2017,7 +2000,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2030,39 +2013,44 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV40"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="12" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2.5" style="1" customWidth="1"/>
+    <col min="1" max="2" width="2.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="54.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="4" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4" style="1" customWidth="1"/>
+    <col min="4" max="7" width="4" style="1" customWidth="1"/>
     <col min="8" max="8" width="3.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.17188" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="29.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="1" customWidth="1"/>
-    <col min="12" max="256" width="10.8516" style="1" customWidth="1"/>
+    <col min="12" max="256" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2075,7 +2063,7 @@
       <c r="J1" s="4"/>
       <c r="K1" s="5"/>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8"/>
@@ -2086,724 +2074,724 @@
       <c r="H2" s="9"/>
       <c r="I2" s="10"/>
       <c r="J2" s="11"/>
-      <c r="K2" t="s" s="12">
+      <c r="K2" s="12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="13"/>
-      <c r="C3" t="s" s="14">
-        <v>1</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
+      <c r="C3" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="14"/>
       <c r="I3" s="10"/>
-      <c r="J3" t="s" s="17">
+      <c r="J3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K3" t="s" s="12">
+      <c r="K3" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="13"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="10"/>
       <c r="J4" s="11"/>
-      <c r="K4" t="s" s="12">
+      <c r="K4" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" ht="12" customHeight="1">
+    <row r="5" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="13"/>
-      <c r="C5" t="s" s="20">
+      <c r="C5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D5" t="s" s="21">
+      <c r="D5" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
       <c r="I5" s="10"/>
-      <c r="J5" t="s" s="25">
+      <c r="J5" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="26"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
+      <c r="K5" s="22"/>
+    </row>
+    <row r="6" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="27">
-        <v>43412</v>
-      </c>
-      <c r="D6" t="s" s="21">
+      <c r="C6" s="23">
+        <v>43436</v>
+      </c>
+      <c r="D6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="28"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="26"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
+      <c r="J6" s="66"/>
+      <c r="K6" s="22"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="13"/>
-      <c r="C7" t="s" s="20">
+      <c r="C7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s" s="21">
+      <c r="D7" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="10"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="26"/>
-    </row>
-    <row r="8" ht="15" customHeight="1">
+      <c r="J7" s="66"/>
+      <c r="K7" s="22"/>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="13"/>
-      <c r="C8" t="s" s="20">
+      <c r="C8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="22">
-        <v>1</v>
-      </c>
-      <c r="E8" s="30"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="26"/>
-    </row>
-    <row r="9" ht="15" customHeight="1">
+      <c r="J8" s="66"/>
+      <c r="K8" s="22"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="13"/>
-      <c r="C9" t="s" s="20">
+      <c r="C9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="19">
         <v>2</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="10"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="26"/>
-    </row>
-    <row r="10" ht="12" customHeight="1">
+      <c r="J9" s="66"/>
+      <c r="K9" s="22"/>
+    </row>
+    <row r="10" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="13"/>
-      <c r="C10" t="s" s="31">
+      <c r="C10" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="19">
         <v>3</v>
       </c>
-      <c r="E10" s="30"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="10"/>
-      <c r="J10" t="s" s="25">
+      <c r="J10" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="26"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="26"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
+      <c r="J11" s="66"/>
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="26"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
+      <c r="J12" s="66"/>
+      <c r="K12" s="22"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="36"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="26"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
+      <c r="J13" s="66"/>
+      <c r="K13" s="22"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" t="s" s="37">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="38">
-        <v>1</v>
-      </c>
-      <c r="F14" s="38">
+      <c r="E14" s="31">
+        <v>1</v>
+      </c>
+      <c r="F14" s="31">
         <v>2</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="31">
         <v>3</v>
       </c>
-      <c r="H14" s="39"/>
+      <c r="H14" s="32"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="26"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
-      <c r="C15" t="s" s="43">
+      <c r="J14" s="33"/>
+      <c r="K14" s="22"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="44">
+      <c r="D15" s="37">
         <f>D16*0.39+D17/3*0.16+D18*0.29+D19*0.16</f>
         <v>1</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="37">
         <f>E16*0.39+E17/3*0.16+E18*0.29+E19*0.16</f>
-        <v>0.9466666666666667</v>
-      </c>
-      <c r="F15" s="44">
+        <v>0.94666666666666666</v>
+      </c>
+      <c r="F15" s="37">
         <f>F16*0.39+F17/3*0.16+F18*0.29+F19*0.16</f>
         <v>1</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="37">
         <f>G16*0.39+G17/3*0.16+G18*0.29+G19*0.16</f>
         <v>1</v>
       </c>
-      <c r="H15" s="45"/>
-      <c r="I15" s="42"/>
-      <c r="J15" t="s" s="25">
+      <c r="H15" s="38"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="K15" s="46"/>
-    </row>
-    <row r="16" ht="23.25" customHeight="1">
+      <c r="K15" s="39"/>
+    </row>
+    <row r="16" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
-      <c r="B16" s="33"/>
-      <c r="C16" t="s" s="47">
+      <c r="B16" s="26"/>
+      <c r="C16" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="48">
-        <v>1</v>
-      </c>
-      <c r="E16" s="48">
-        <v>1</v>
-      </c>
-      <c r="F16" s="48">
-        <v>1</v>
-      </c>
-      <c r="G16" s="49">
-        <v>1</v>
-      </c>
-      <c r="H16" s="50"/>
+      <c r="D16" s="41">
+        <v>1</v>
+      </c>
+      <c r="E16" s="41">
+        <v>1</v>
+      </c>
+      <c r="F16" s="41">
+        <v>1</v>
+      </c>
+      <c r="G16" s="42">
+        <v>1</v>
+      </c>
+      <c r="H16" s="43"/>
       <c r="I16" s="10"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="26"/>
-    </row>
-    <row r="17" ht="23.25" customHeight="1">
+      <c r="J16" s="66"/>
+      <c r="K16" s="22"/>
+    </row>
+    <row r="17" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
-      <c r="B17" s="33"/>
-      <c r="C17" t="s" s="51">
+      <c r="B17" s="26"/>
+      <c r="C17" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D17" s="45">
         <v>3</v>
       </c>
-      <c r="E17" s="52">
+      <c r="E17" s="45">
         <v>2</v>
       </c>
-      <c r="F17" s="52">
+      <c r="F17" s="45">
         <v>3</v>
       </c>
-      <c r="G17" s="53">
+      <c r="G17" s="46">
         <v>3</v>
       </c>
-      <c r="H17" s="50"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="26"/>
-    </row>
-    <row r="18" ht="23.25" customHeight="1">
+      <c r="J17" s="66"/>
+      <c r="K17" s="22"/>
+    </row>
+    <row r="18" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
-      <c r="B18" s="33"/>
-      <c r="C18" t="s" s="51">
+      <c r="B18" s="26"/>
+      <c r="C18" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="52">
-        <v>1</v>
-      </c>
-      <c r="E18" s="52">
-        <v>1</v>
-      </c>
-      <c r="F18" s="52">
-        <v>1</v>
-      </c>
-      <c r="G18" s="53">
-        <v>1</v>
-      </c>
-      <c r="H18" s="50"/>
+      <c r="D18" s="45">
+        <v>1</v>
+      </c>
+      <c r="E18" s="45">
+        <v>1</v>
+      </c>
+      <c r="F18" s="45">
+        <v>1</v>
+      </c>
+      <c r="G18" s="46">
+        <v>1</v>
+      </c>
+      <c r="H18" s="43"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="26"/>
-    </row>
-    <row r="19" ht="23.25" customHeight="1">
+      <c r="J18" s="66"/>
+      <c r="K18" s="22"/>
+    </row>
+    <row r="19" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
-      <c r="B19" s="33"/>
-      <c r="C19" t="s" s="54">
+      <c r="B19" s="26"/>
+      <c r="C19" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="55">
-        <v>1</v>
-      </c>
-      <c r="E19" s="55">
-        <v>1</v>
-      </c>
-      <c r="F19" s="55">
-        <v>1</v>
-      </c>
-      <c r="G19" s="56">
-        <v>1</v>
-      </c>
-      <c r="H19" s="50"/>
+      <c r="D19" s="48">
+        <v>1</v>
+      </c>
+      <c r="E19" s="48">
+        <v>1</v>
+      </c>
+      <c r="F19" s="48">
+        <v>1</v>
+      </c>
+      <c r="G19" s="49">
+        <v>1</v>
+      </c>
+      <c r="H19" s="43"/>
       <c r="I19" s="10"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="26"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="57"/>
-      <c r="B20" s="58"/>
-      <c r="C20" t="s" s="43">
+      <c r="J19" s="66"/>
+      <c r="K19" s="22"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="44">
+      <c r="D20" s="37">
         <f>D21*0.33+D22*0.24+D23*0.23+D24/3*0.19</f>
-        <v>0.9266666666666667</v>
-      </c>
-      <c r="E20" s="44">
+        <v>0.92666666666666675</v>
+      </c>
+      <c r="E20" s="37">
         <f>E21*0.33+E22*0.24+E23*0.23+E24/3*0.19</f>
         <v>0.76</v>
       </c>
-      <c r="F20" s="44">
+      <c r="F20" s="37">
         <f>F21*0.33+F22*0.24+F23*0.23+F24/3*0.19</f>
-        <v>0.9266666666666667</v>
-      </c>
-      <c r="G20" s="44">
+        <v>0.92666666666666675</v>
+      </c>
+      <c r="G20" s="37">
         <f>G21*0.33+G22*0.24+G23*0.23+G24/3*0.19</f>
         <v>0.99</v>
       </c>
-      <c r="H20" s="45"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="59"/>
-    </row>
-    <row r="21" ht="23.25" customHeight="1">
+      <c r="H20" s="38"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="52"/>
+    </row>
+    <row r="21" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
-      <c r="B21" s="33"/>
-      <c r="C21" t="s" s="47">
+      <c r="B21" s="26"/>
+      <c r="C21" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="48">
-        <v>1</v>
-      </c>
-      <c r="E21" s="48">
-        <v>1</v>
-      </c>
-      <c r="F21" s="48">
-        <v>1</v>
-      </c>
-      <c r="G21" s="60">
-        <v>1</v>
-      </c>
-      <c r="H21" s="50"/>
+      <c r="D21" s="41">
+        <v>1</v>
+      </c>
+      <c r="E21" s="41">
+        <v>1</v>
+      </c>
+      <c r="F21" s="41">
+        <v>1</v>
+      </c>
+      <c r="G21" s="53">
+        <v>1</v>
+      </c>
+      <c r="H21" s="43"/>
       <c r="I21" s="10"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="26"/>
-    </row>
-    <row r="22" ht="23.25" customHeight="1">
+      <c r="J21" s="66"/>
+      <c r="K21" s="22"/>
+    </row>
+    <row r="22" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
-      <c r="B22" s="33"/>
-      <c r="C22" t="s" s="51">
+      <c r="B22" s="26"/>
+      <c r="C22" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="52">
-        <v>1</v>
-      </c>
-      <c r="E22" s="52">
-        <v>1</v>
-      </c>
-      <c r="F22" s="52">
-        <v>1</v>
-      </c>
-      <c r="G22" s="53">
-        <v>1</v>
-      </c>
-      <c r="H22" s="50"/>
+      <c r="D22" s="45">
+        <v>1</v>
+      </c>
+      <c r="E22" s="45">
+        <v>1</v>
+      </c>
+      <c r="F22" s="45">
+        <v>1</v>
+      </c>
+      <c r="G22" s="46">
+        <v>1</v>
+      </c>
+      <c r="H22" s="43"/>
       <c r="I22" s="10"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="26"/>
-    </row>
-    <row r="23" ht="23.25" customHeight="1">
+      <c r="J22" s="33"/>
+      <c r="K22" s="22"/>
+    </row>
+    <row r="23" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
-      <c r="B23" s="33"/>
-      <c r="C23" t="s" s="51">
+      <c r="B23" s="26"/>
+      <c r="C23" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="52">
-        <v>1</v>
-      </c>
-      <c r="E23" s="52">
+      <c r="D23" s="45">
+        <v>1</v>
+      </c>
+      <c r="E23" s="45">
         <v>0</v>
       </c>
-      <c r="F23" s="52">
-        <v>1</v>
-      </c>
-      <c r="G23" s="53">
-        <v>1</v>
-      </c>
-      <c r="H23" s="50"/>
+      <c r="F23" s="45">
+        <v>1</v>
+      </c>
+      <c r="G23" s="46">
+        <v>1</v>
+      </c>
+      <c r="H23" s="43"/>
       <c r="I23" s="10"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="26"/>
-    </row>
-    <row r="24" ht="35.25" customHeight="1">
+      <c r="J23" s="33"/>
+      <c r="K23" s="22"/>
+    </row>
+    <row r="24" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
-      <c r="B24" s="33"/>
-      <c r="C24" t="s" s="54">
+      <c r="B24" s="26"/>
+      <c r="C24" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="48">
         <v>2</v>
       </c>
-      <c r="E24" s="55">
+      <c r="E24" s="48">
         <v>3</v>
       </c>
-      <c r="F24" s="55">
+      <c r="F24" s="48">
         <v>2</v>
       </c>
-      <c r="G24" s="56">
+      <c r="G24" s="49">
         <v>3</v>
       </c>
-      <c r="H24" s="50"/>
+      <c r="H24" s="43"/>
       <c r="I24" s="10"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="26"/>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="57"/>
-      <c r="B25" s="58"/>
-      <c r="C25" t="s" s="43">
+      <c r="J24" s="33"/>
+      <c r="K24" s="22"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="44">
+      <c r="D25" s="37">
         <f>D26*0.38+D27/3*0.32+D28/3*0.17+D29*0.13</f>
         <v>0.87</v>
       </c>
-      <c r="E25" s="44">
+      <c r="E25" s="37">
         <f>E26*0.38+E27/3*0.32+E28/3*0.17+E29*0.13</f>
-        <v>0.8133333333333332</v>
-      </c>
-      <c r="F25" s="44">
+        <v>0.81333333333333324</v>
+      </c>
+      <c r="F25" s="37">
         <f>F26*0.38+F27/3*0.32+F28/3*0.17+F29*0.13</f>
-        <v>0.9433333333333332</v>
-      </c>
-      <c r="G25" s="44">
+        <v>0.94333333333333325</v>
+      </c>
+      <c r="G25" s="37">
         <f>G26*0.38+G27/3*0.32+G28/3*0.17+G29*0.13</f>
-        <v>0.8933333333333333</v>
-      </c>
-      <c r="H25" s="45"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="59"/>
-    </row>
-    <row r="26" ht="23.25" customHeight="1">
+        <v>0.89333333333333331</v>
+      </c>
+      <c r="H25" s="38"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="52"/>
+    </row>
+    <row r="26" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
-      <c r="B26" s="33"/>
-      <c r="C26" t="s" s="47">
+      <c r="B26" s="26"/>
+      <c r="C26" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="48">
-        <v>1</v>
-      </c>
-      <c r="E26" s="48">
-        <v>1</v>
-      </c>
-      <c r="F26" s="48">
-        <v>1</v>
-      </c>
-      <c r="G26" s="49">
-        <v>1</v>
-      </c>
-      <c r="H26" s="50"/>
+      <c r="D26" s="41">
+        <v>1</v>
+      </c>
+      <c r="E26" s="41">
+        <v>1</v>
+      </c>
+      <c r="F26" s="41">
+        <v>1</v>
+      </c>
+      <c r="G26" s="42">
+        <v>1</v>
+      </c>
+      <c r="H26" s="43"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="26"/>
-    </row>
-    <row r="27" ht="23.25" customHeight="1">
+      <c r="J26" s="33"/>
+      <c r="K26" s="22"/>
+    </row>
+    <row r="27" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
-      <c r="B27" s="33"/>
-      <c r="C27" t="s" s="51">
+      <c r="B27" s="26"/>
+      <c r="C27" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="45">
         <v>3</v>
       </c>
-      <c r="E27" s="52">
+      <c r="E27" s="45">
         <v>3</v>
       </c>
-      <c r="F27" s="52">
+      <c r="F27" s="45">
         <v>3</v>
       </c>
-      <c r="G27" s="53">
+      <c r="G27" s="46">
         <v>2</v>
       </c>
-      <c r="H27" s="50"/>
+      <c r="H27" s="43"/>
       <c r="I27" s="10"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="26"/>
-    </row>
-    <row r="28" ht="23.25" customHeight="1">
+      <c r="J27" s="33"/>
+      <c r="K27" s="22"/>
+    </row>
+    <row r="28" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="33"/>
-      <c r="C28" t="s" s="51">
+      <c r="B28" s="26"/>
+      <c r="C28" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="45">
         <v>3</v>
       </c>
-      <c r="E28" s="52">
+      <c r="E28" s="45">
         <v>2</v>
       </c>
-      <c r="F28" s="52">
+      <c r="F28" s="45">
         <v>2</v>
       </c>
-      <c r="G28" s="53">
+      <c r="G28" s="46">
         <v>3</v>
       </c>
-      <c r="H28" s="50"/>
+      <c r="H28" s="43"/>
       <c r="I28" s="10"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="26"/>
-    </row>
-    <row r="29" ht="23.25" customHeight="1">
+      <c r="J28" s="33"/>
+      <c r="K28" s="22"/>
+    </row>
+    <row r="29" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="6"/>
-      <c r="B29" s="33"/>
-      <c r="C29" t="s" s="51">
+      <c r="B29" s="26"/>
+      <c r="C29" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="52">
+      <c r="D29" s="45">
         <v>0</v>
       </c>
-      <c r="E29" s="52">
+      <c r="E29" s="45">
         <v>0</v>
       </c>
-      <c r="F29" s="52">
-        <v>1</v>
-      </c>
-      <c r="G29" s="53">
-        <v>1</v>
-      </c>
-      <c r="H29" s="50"/>
+      <c r="F29" s="45">
+        <v>1</v>
+      </c>
+      <c r="G29" s="46">
+        <v>1</v>
+      </c>
+      <c r="H29" s="43"/>
       <c r="I29" s="10"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="26"/>
-    </row>
-    <row r="30" ht="12.75" customHeight="1">
+      <c r="J29" s="33"/>
+      <c r="K29" s="22"/>
+    </row>
+    <row r="30" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="6"/>
-      <c r="B30" s="61"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="63"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="56"/>
       <c r="I30" s="10"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="26"/>
-    </row>
-    <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="64"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
+      <c r="K30" s="22"/>
+    </row>
+    <row r="31" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="57"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="26"/>
-    </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="64"/>
+      <c r="K31" s="22"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="57"/>
       <c r="B32" s="11"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
-      <c r="H32" s="67"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
       <c r="I32" s="11"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="26"/>
-    </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="64"/>
+      <c r="K32" s="22"/>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="57"/>
       <c r="B33" s="11"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="26"/>
-    </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="64"/>
+      <c r="K33" s="22"/>
+    </row>
+    <row r="34" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="57"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="26"/>
-    </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="64"/>
+      <c r="K34" s="22"/>
+    </row>
+    <row r="35" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="57"/>
       <c r="B35" s="11"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="26"/>
-    </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="64"/>
+      <c r="K35" s="22"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="57"/>
       <c r="B36" s="11"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
-      <c r="E36" s="67"/>
-      <c r="F36" s="67"/>
-      <c r="G36" s="67"/>
-      <c r="H36" s="67"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="26"/>
-    </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="64"/>
+      <c r="K36" s="22"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="57"/>
       <c r="B37" s="11"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="26"/>
-    </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="64"/>
+      <c r="K37" s="22"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="57"/>
       <c r="B38" s="11"/>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
       <c r="I38" s="11"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="26"/>
-    </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="64"/>
+      <c r="K38" s="22"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="57"/>
       <c r="B39" s="11"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
       <c r="I39" s="11"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="26"/>
-    </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="68"/>
-      <c r="B40" s="69"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="71"/>
+      <c r="K39" s="22"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="61"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="J10:J13"/>
     <mergeCell ref="J15:J21"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="J5:J9"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="D5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
